--- a/Data/Variations.xlsx
+++ b/Data/Variations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Variations" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="573">
   <si>
     <t>flatten</t>
   </si>
@@ -302,15 +302,6 @@
     <t>crop</t>
   </si>
   <si>
-    <t>hexes (probably never)</t>
-  </si>
-  <si>
-    <t>octapol (probably never)</t>
-  </si>
-  <si>
-    <t>synth (probably never)</t>
-  </si>
-  <si>
     <t>unpolar</t>
   </si>
   <si>
@@ -923,9 +914,6 @@
     <t>stretchy_pants (no source, possibly flawed)</t>
   </si>
   <si>
-    <t>synthv2 (probably never)</t>
-  </si>
-  <si>
     <t>falloff3</t>
   </si>
   <si>
@@ -1722,6 +1710,30 @@
   </si>
   <si>
     <t>CPU/GPU/3D/Pre/Post implemented</t>
+  </si>
+  <si>
+    <t>jac_cn (JWildfire)</t>
+  </si>
+  <si>
+    <t>jac_sn (JWildfire)</t>
+  </si>
+  <si>
+    <t>smartcrop</t>
+  </si>
+  <si>
+    <t>hexes</t>
+  </si>
+  <si>
+    <t>octapol</t>
+  </si>
+  <si>
+    <t>logDB (JWildfire)</t>
+  </si>
+  <si>
+    <t>synth</t>
+  </si>
+  <si>
+    <t>crackle</t>
   </si>
 </sst>
 </file>
@@ -3678,11 +3690,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="67885056"/>
-        <c:axId val="124232256"/>
+        <c:axId val="84608512"/>
+        <c:axId val="64606720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67885056"/>
+        <c:axId val="84608512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3691,7 +3703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124232256"/>
+        <c:crossAx val="64606720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3699,7 +3711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124232256"/>
+        <c:axId val="64606720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3710,14 +3722,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67885056"/>
+        <c:crossAx val="84608512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4056,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,16 +4084,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" t="s">
@@ -4094,115 +4105,115 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>287</v>
+        <v>97</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>288</v>
+        <v>98</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>356</v>
+        <v>99</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>292</v>
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>357</v>
+        <v>101</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>391</v>
+        <v>103</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>396</v>
+        <v>104</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4213,24 +4224,24 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>289</v>
+        <v>105</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4241,10 +4252,10 @@
         <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>424</v>
+        <v>107</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4255,10 +4266,10 @@
         <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4269,10 +4280,10 @@
         <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>302</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4283,10 +4294,10 @@
         <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4294,21 +4305,21 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4316,45 +4327,51 @@
         <v>50</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E22" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4362,15 +4379,21 @@
         <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4378,15 +4401,15 @@
         <v>51</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4394,55 +4417,55 @@
         <v>52</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4450,63 +4473,63 @@
         <v>53</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4514,23 +4537,23 @@
         <v>54</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4538,7 +4561,7 @@
         <v>55</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4546,20 +4569,20 @@
         <v>56</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4567,55 +4590,55 @@
         <v>94</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4623,15 +4646,15 @@
         <v>16</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,87 +4662,87 @@
         <v>57</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4727,55 +4750,55 @@
         <v>12</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4783,7 +4806,7 @@
         <v>58</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4791,15 +4814,15 @@
         <v>59</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,23 +4830,23 @@
         <v>20</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4831,7 +4854,7 @@
         <v>60</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4839,15 +4862,15 @@
         <v>61</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,71 +4878,71 @@
         <v>0</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4927,7 +4950,7 @@
         <v>62</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4935,31 +4958,31 @@
         <v>63</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4967,17 +4990,17 @@
         <v>64</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4987,12 +5010,12 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5002,32 +5025,32 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -5037,42 +5060,42 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -5082,7 +5105,7 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -5092,12 +5115,12 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -5107,12 +5130,12 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
@@ -5122,107 +5145,107 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
@@ -5232,12 +5255,12 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
@@ -5252,12 +5275,12 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -5267,7 +5290,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
@@ -5277,72 +5300,72 @@
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
@@ -5362,7 +5385,7 @@
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
@@ -5392,7 +5415,7 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -5402,12 +5425,12 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>294</v>
+      <c r="A193" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
@@ -5447,17 +5470,17 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
@@ -5477,7 +5500,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
@@ -5487,7 +5510,7 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
@@ -5497,22 +5520,22 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>293</v>
+      <c r="A212" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -5527,7 +5550,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
@@ -5557,12 +5580,12 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
@@ -5572,17 +5595,17 @@
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
@@ -5592,47 +5615,47 @@
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -5642,27 +5665,27 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
@@ -5672,167 +5695,167 @@
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
@@ -5842,57 +5865,57 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -5902,27 +5925,27 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
@@ -5932,7 +5955,7 @@
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
@@ -5942,7 +5965,7 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -5983,7 +6006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -5995,7 +6018,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6003,7 +6026,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6019,7 +6042,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6027,7 +6050,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6035,7 +6058,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6051,7 +6074,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6059,7 +6082,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6067,7 +6090,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6075,7 +6098,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6083,7 +6106,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6099,7 +6122,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B14" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6107,7 +6130,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B15" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6115,7 +6138,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B16" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6139,7 +6162,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B19" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6147,7 +6170,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B20" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6155,7 +6178,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B21" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6163,7 +6186,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B22" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6171,7 +6194,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B23" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6179,7 +6202,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B24" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6195,7 +6218,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B26" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6203,7 +6226,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B27" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6211,7 +6234,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B28" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6219,7 +6242,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B29" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6235,7 +6258,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B31" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6243,7 +6266,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B32" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6275,7 +6298,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B36" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6291,7 +6314,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B38" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6299,7 +6322,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B39" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6307,7 +6330,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B40" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6315,7 +6338,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B41" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6323,7 +6346,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B42" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6339,7 +6362,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B44" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6347,7 +6370,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B45" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6355,7 +6378,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B46" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6363,7 +6386,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B47" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6371,7 +6394,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B48" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6379,7 +6402,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B49" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6387,7 +6410,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B50" s="6">
         <v>3.1891599999999998E-5</v>
@@ -6403,7 +6426,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B52" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6411,7 +6434,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B53" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6419,7 +6442,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B54" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6427,7 +6450,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B55" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6435,7 +6458,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B56" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6451,7 +6474,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B58" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6459,7 +6482,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B59" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6483,7 +6506,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B62" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6491,7 +6514,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B63" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6499,7 +6522,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B64" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6515,7 +6538,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B66" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6531,7 +6554,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B68" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6539,7 +6562,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B69" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6555,7 +6578,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B71" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6563,7 +6586,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B72" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6571,7 +6594,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B73" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6579,7 +6602,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B74" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6587,7 +6610,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B75" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6603,7 +6626,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B77" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6611,7 +6634,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B78" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6619,7 +6642,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B79" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6627,7 +6650,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B80" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6635,7 +6658,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B81" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6643,7 +6666,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B82" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6651,7 +6674,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B83" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6659,7 +6682,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B84" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6667,7 +6690,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B85" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6675,7 +6698,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B86" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6683,7 +6706,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B87" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6691,7 +6714,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B88" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6699,7 +6722,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B89" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6707,7 +6730,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B90" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6715,7 +6738,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B91" s="6">
         <v>6.3783100000000003E-5</v>
@@ -6731,7 +6754,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B93" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6747,7 +6770,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B95" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6763,7 +6786,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B97" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6771,7 +6794,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B98" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6779,7 +6802,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B99" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6787,7 +6810,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B100" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6795,7 +6818,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B101" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6803,7 +6826,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B102" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6811,7 +6834,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B103" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6819,7 +6842,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B104" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6827,7 +6850,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B105" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6835,7 +6858,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B106" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6851,7 +6874,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B108" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6859,7 +6882,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B109" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6867,7 +6890,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B110" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6875,7 +6898,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B111" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6883,7 +6906,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B112" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6899,7 +6922,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B114" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6907,7 +6930,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B115" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6915,7 +6938,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B116" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6923,7 +6946,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B117" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6931,7 +6954,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B118" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6939,7 +6962,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B119" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6947,7 +6970,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B120" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6955,7 +6978,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B121" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6971,7 +6994,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B123" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6987,7 +7010,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B125" s="6">
         <v>9.5674700000000001E-5</v>
@@ -6995,7 +7018,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B126" s="6">
         <v>9.5674700000000001E-5</v>
@@ -7003,7 +7026,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B127" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7019,7 +7042,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B129" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7035,7 +7058,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B131" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7043,7 +7066,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B132" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7051,7 +7074,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B133" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7059,7 +7082,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B134" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7067,7 +7090,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B135" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7075,7 +7098,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B136" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7083,7 +7106,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B137" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7091,7 +7114,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B138" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7099,7 +7122,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B139" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7107,7 +7130,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B140" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7139,7 +7162,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B144" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7147,7 +7170,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B145" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7155,7 +7178,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B146" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7163,7 +7186,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B147" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7171,7 +7194,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B148" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7179,7 +7202,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B149" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7187,7 +7210,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B150" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7195,7 +7218,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B151" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7203,7 +7226,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B152" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7211,7 +7234,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B153" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7219,7 +7242,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B154" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7227,7 +7250,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B155" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7235,7 +7258,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B156" s="6">
         <v>1.2756599999999999E-4</v>
@@ -7243,7 +7266,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B157" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7251,7 +7274,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B158" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7267,7 +7290,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B160" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7275,7 +7298,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B161" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7291,7 +7314,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B163" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7299,7 +7322,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B164" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7307,7 +7330,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B165" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7315,7 +7338,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B166" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7323,7 +7346,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B167" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7331,7 +7354,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B168" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7339,7 +7362,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B169" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7347,7 +7370,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B170" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7355,7 +7378,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B171" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7363,7 +7386,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B172" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7371,7 +7394,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B173" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7379,7 +7402,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B174" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7395,7 +7418,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B176" s="6">
         <v>1.5945799999999999E-4</v>
@@ -7411,7 +7434,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B178" s="6">
         <v>1.91349E-4</v>
@@ -7419,7 +7442,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B179" s="6">
         <v>1.91349E-4</v>
@@ -7427,7 +7450,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B180" s="6">
         <v>1.91349E-4</v>
@@ -7435,7 +7458,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B181" s="6">
         <v>1.91349E-4</v>
@@ -7443,7 +7466,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B182" s="6">
         <v>1.91349E-4</v>
@@ -7451,7 +7474,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B183" s="6">
         <v>1.91349E-4</v>
@@ -7459,7 +7482,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B184" s="6">
         <v>1.91349E-4</v>
@@ -7467,7 +7490,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B185" s="6">
         <v>1.91349E-4</v>
@@ -7483,7 +7506,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B187" s="6">
         <v>1.91349E-4</v>
@@ -7491,7 +7514,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B188" s="6">
         <v>1.91349E-4</v>
@@ -7499,7 +7522,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B189" s="6">
         <v>1.91349E-4</v>
@@ -7507,7 +7530,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B190" s="6">
         <v>1.91349E-4</v>
@@ -7515,7 +7538,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B191" s="6">
         <v>1.91349E-4</v>
@@ -7523,7 +7546,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B192" s="6">
         <v>1.91349E-4</v>
@@ -7539,7 +7562,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B194" s="6">
         <v>1.91349E-4</v>
@@ -7547,7 +7570,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B195" s="6">
         <v>1.91349E-4</v>
@@ -7563,7 +7586,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B197" s="6">
         <v>1.91349E-4</v>
@@ -7579,7 +7602,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B199" s="6">
         <v>1.91349E-4</v>
@@ -7587,7 +7610,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B200" s="6">
         <v>2.23241E-4</v>
@@ -7595,7 +7618,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B201" s="6">
         <v>2.23241E-4</v>
@@ -7611,7 +7634,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B203" s="6">
         <v>2.23241E-4</v>
@@ -7619,7 +7642,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B204" s="6">
         <v>2.23241E-4</v>
@@ -7627,7 +7650,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B205" s="6">
         <v>2.23241E-4</v>
@@ -7635,7 +7658,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B206" s="6">
         <v>2.23241E-4</v>
@@ -7643,7 +7666,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B207" s="6">
         <v>2.23241E-4</v>
@@ -7659,7 +7682,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B209" s="6">
         <v>2.23241E-4</v>
@@ -7667,7 +7690,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B210" s="6">
         <v>2.23241E-4</v>
@@ -7675,7 +7698,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B211" s="6">
         <v>2.23241E-4</v>
@@ -7683,7 +7706,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B212" s="6">
         <v>2.23241E-4</v>
@@ -7699,7 +7722,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B214" s="6">
         <v>2.23241E-4</v>
@@ -7707,7 +7730,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B215" s="6">
         <v>2.23241E-4</v>
@@ -7715,7 +7738,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B216" s="6">
         <v>2.23241E-4</v>
@@ -7723,7 +7746,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B217" s="6">
         <v>2.23241E-4</v>
@@ -7731,7 +7754,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B218" s="6">
         <v>2.23241E-4</v>
@@ -7739,7 +7762,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B219" s="6">
         <v>2.23241E-4</v>
@@ -7747,7 +7770,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B220" s="6">
         <v>2.55133E-4</v>
@@ -7755,7 +7778,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B221" s="6">
         <v>2.55133E-4</v>
@@ -7763,7 +7786,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B222" s="6">
         <v>2.55133E-4</v>
@@ -7771,7 +7794,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B223" s="6">
         <v>2.55133E-4</v>
@@ -7795,7 +7818,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B226" s="6">
         <v>2.55133E-4</v>
@@ -7803,7 +7826,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B227" s="6">
         <v>2.55133E-4</v>
@@ -7811,7 +7834,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B228" s="6">
         <v>2.55133E-4</v>
@@ -7819,7 +7842,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B229" s="6">
         <v>2.55133E-4</v>
@@ -7827,7 +7850,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B230" s="6">
         <v>2.55133E-4</v>
@@ -7835,7 +7858,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B231" s="6">
         <v>2.55133E-4</v>
@@ -7843,7 +7866,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B232" s="6">
         <v>2.55133E-4</v>
@@ -7851,7 +7874,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B233" s="6">
         <v>2.55133E-4</v>
@@ -7859,7 +7882,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B234" s="6">
         <v>2.55133E-4</v>
@@ -7883,7 +7906,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B237" s="6">
         <v>2.55133E-4</v>
@@ -7891,7 +7914,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B238" s="6">
         <v>2.55133E-4</v>
@@ -7907,7 +7930,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B240" s="6">
         <v>2.55133E-4</v>
@@ -7915,7 +7938,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B241" s="6">
         <v>2.55133E-4</v>
@@ -7923,7 +7946,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B242" s="6">
         <v>2.55133E-4</v>
@@ -7931,7 +7954,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B243" s="6">
         <v>2.8702399999999998E-4</v>
@@ -7939,7 +7962,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B244" s="6">
         <v>2.8702399999999998E-4</v>
@@ -7947,7 +7970,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B245" s="6">
         <v>2.8702399999999998E-4</v>
@@ -7955,7 +7978,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B246" s="6">
         <v>2.8702399999999998E-4</v>
@@ -7963,7 +7986,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B247" s="6">
         <v>2.8702399999999998E-4</v>
@@ -7971,7 +7994,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B248" s="6">
         <v>2.8702399999999998E-4</v>
@@ -7979,7 +8002,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B249" s="6">
         <v>2.8702399999999998E-4</v>
@@ -7987,7 +8010,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B250" s="6">
         <v>2.8702399999999998E-4</v>
@@ -8003,7 +8026,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B252" s="6">
         <v>2.8702399999999998E-4</v>
@@ -8011,7 +8034,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B253" s="6">
         <v>2.8702399999999998E-4</v>
@@ -8019,7 +8042,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B254" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8027,7 +8050,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B255" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8035,7 +8058,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B256" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8043,7 +8066,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B257" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8051,7 +8074,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B258" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8059,7 +8082,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B259" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8067,7 +8090,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B260" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8075,7 +8098,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B261" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8083,7 +8106,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B262" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8091,7 +8114,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B263" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8099,7 +8122,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B264" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8107,7 +8130,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B265" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8115,7 +8138,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B266" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8123,7 +8146,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B267" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8147,7 +8170,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B270" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8155,7 +8178,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B271" s="6">
         <v>3.1891599999999998E-4</v>
@@ -8163,7 +8186,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B272" s="6">
         <v>3.5080700000000002E-4</v>
@@ -8171,7 +8194,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B273" s="6">
         <v>3.5080700000000002E-4</v>
@@ -8179,7 +8202,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B274" s="6">
         <v>3.5080700000000002E-4</v>
@@ -8187,7 +8210,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B275" s="6">
         <v>3.5080700000000002E-4</v>
@@ -8195,7 +8218,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B276" s="6">
         <v>3.5080700000000002E-4</v>
@@ -8203,7 +8226,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B277" s="6">
         <v>3.5080700000000002E-4</v>
@@ -8211,7 +8234,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B278" s="6">
         <v>3.8269900000000002E-4</v>
@@ -8219,7 +8242,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B279" s="6">
         <v>3.8269900000000002E-4</v>
@@ -8227,7 +8250,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B280" s="6">
         <v>3.8269900000000002E-4</v>
@@ -8235,7 +8258,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B281" s="6">
         <v>4.1459E-4</v>
@@ -8259,7 +8282,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B284" s="6">
         <v>4.1459E-4</v>
@@ -8267,7 +8290,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B285" s="6">
         <v>4.46482E-4</v>
@@ -8275,7 +8298,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B286" s="6">
         <v>4.46482E-4</v>
@@ -8283,7 +8306,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B287" s="6">
         <v>4.78374E-4</v>
@@ -8291,7 +8314,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B288" s="6">
         <v>4.78374E-4</v>
@@ -8299,7 +8322,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B289" s="6">
         <v>4.78374E-4</v>
@@ -8307,7 +8330,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B290" s="6">
         <v>4.78374E-4</v>
@@ -8315,7 +8338,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B291" s="6">
         <v>4.78374E-4</v>
@@ -8323,7 +8346,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B292" s="6">
         <v>5.1026499999999998E-4</v>
@@ -8331,7 +8354,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B293" s="6">
         <v>5.4215700000000003E-4</v>
@@ -8339,7 +8362,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B294" s="6">
         <v>5.4215700000000003E-4</v>
@@ -8347,7 +8370,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B295" s="6">
         <v>5.7404799999999996E-4</v>
@@ -8363,7 +8386,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B297" s="6">
         <v>6.3783100000000005E-4</v>
@@ -8371,7 +8394,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B298" s="6">
         <v>7.0161500000000005E-4</v>
@@ -8379,7 +8402,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B299" s="6">
         <v>7.3350599999999998E-4</v>
@@ -8395,7 +8418,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B301" s="6">
         <v>9.5674699999999998E-4</v>

--- a/Data/Variations.xlsx
+++ b/Data/Variations.xlsx
@@ -3690,11 +3690,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84608512"/>
-        <c:axId val="64606720"/>
+        <c:axId val="108275712"/>
+        <c:axId val="89839232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84608512"/>
+        <c:axId val="108275712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,7 +3703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64606720"/>
+        <c:crossAx val="89839232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3711,7 +3711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64606720"/>
+        <c:axId val="89839232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3722,7 +3722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84608512"/>
+        <c:crossAx val="108275712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4068,7 +4068,7 @@
   <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,7 +4234,7 @@
       <c r="A11" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -4268,8 +4268,8 @@
       <c r="E13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>420</v>
+      <c r="G13" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4283,7 +4283,7 @@
         <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>567</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
         <v>110</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>228</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>111</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>112</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>388</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
         <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>114</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>570</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,7 +4371,7 @@
         <v>117</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4382,7 +4382,7 @@
         <v>118</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
         <v>119</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
